--- a/Mec_ver4-main/pics/scenario_1/statistic.xlsx
+++ b/Mec_ver4-main/pics/scenario_1/statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\Lab\MEC_VER_NEW_VEHICLES\Mec_ver4-main\pics\scenario_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E55CFA-8AD4-46C7-9177-CCFF6ADB2691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE71D7A-BA3B-4F31-A844-FE56A8088B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>2.76</v>
+        <v>0.48</v>
       </c>
       <c r="C2" s="4">
-        <v>1.1568105</v>
+        <v>1.3441418999999999</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0.94</v>
+        <v>0.54999999999999905</v>
       </c>
       <c r="C4" s="4">
-        <v>1.1169342</v>
+        <v>1.2455639999999899</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1.5699999999999901</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C5" s="4">
-        <v>2.7832049999999899</v>
+        <v>2.1717998999999999</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -532,7 +532,7 @@
         <v>0.62</v>
       </c>
       <c r="C6" s="4">
-        <v>2.06753129999999</v>
+        <v>2.56640219999999</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -551,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>1.28</v>
+        <v>0.42</v>
       </c>
       <c r="C7" s="4">
-        <v>2.4512553000000001</v>
+        <v>2.0644271999999999</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
